--- a/requirements/header.xlsx
+++ b/requirements/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\PycharmProjects\work_plan_converter\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B50E3D9A-564B-4788-96DC-BA39077E68B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E806D8-9811-4604-A8C1-7F5DE990617C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -487,25 +487,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -557,135 +544,9 @@
     <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -698,17 +559,143 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -992,411 +979,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="68" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="69"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="24"/>
     </row>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+    <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="70" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="71"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="26"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="70" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="71"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="26"/>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="6"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="6"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="6"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="75"/>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="22"/>
     </row>
-    <row r="8" spans="2:22" ht="51" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+    <row r="8" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="33" t="s">
         <v>5</v>
       </c>
+      <c r="C8" s="37" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="6">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>1</v>
+      </c>
+      <c r="S9" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="66" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="67"/>
+    </row>
+    <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="68"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14">
+        <v>2</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>4</v>
+      </c>
+      <c r="E12" s="16">
+        <v>5</v>
+      </c>
+      <c r="F12" s="17">
         <v>6</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="G12" s="15">
         <v>7</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="H12" s="15">
         <v>8</v>
       </c>
-      <c r="G8" s="64" t="s">
+      <c r="I12" s="15">
         <v>9</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="J12" s="15">
         <v>10</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="K12" s="15"/>
+      <c r="L12" s="14">
         <v>11</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="M12" s="15">
         <v>12</v>
       </c>
-      <c r="K8" s="47" t="s">
+      <c r="N12" s="15">
         <v>13</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="O12" s="13">
         <v>14</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="P12" s="13">
         <v>15</v>
       </c>
-      <c r="N8" s="25" t="s">
+      <c r="Q12" s="13">
         <v>16</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="10" t="s">
+      <c r="R12" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="11">
-        <v>2</v>
-      </c>
-      <c r="O9" s="11">
-        <v>2</v>
-      </c>
-      <c r="P9" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="R9" s="14">
-        <v>0</v>
-      </c>
-      <c r="S9" s="15">
-        <v>1</v>
-      </c>
-      <c r="T9" s="27" t="s">
+      <c r="S12" s="18">
         <v>18</v>
       </c>
-      <c r="U9" s="27" t="s">
+      <c r="T12" s="18">
         <v>19</v>
       </c>
-      <c r="V9" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="O10" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="31"/>
-    </row>
-    <row r="11" spans="2:22" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="77"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="38"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="32"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="18">
-        <v>1</v>
-      </c>
-      <c r="C12" s="19">
-        <v>2</v>
-      </c>
-      <c r="D12" s="20">
-        <v>3</v>
-      </c>
-      <c r="E12" s="20">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21">
-        <v>5</v>
-      </c>
-      <c r="G12" s="22">
-        <v>6</v>
-      </c>
-      <c r="H12" s="20">
-        <v>7</v>
-      </c>
-      <c r="I12" s="20">
-        <v>8</v>
-      </c>
-      <c r="J12" s="20">
-        <v>9</v>
-      </c>
-      <c r="K12" s="20">
-        <v>10</v>
-      </c>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19">
-        <v>11</v>
-      </c>
-      <c r="N12" s="20">
-        <v>12</v>
-      </c>
-      <c r="O12" s="20">
-        <v>13</v>
-      </c>
-      <c r="P12" s="18">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="18">
-        <v>15</v>
-      </c>
-      <c r="R12" s="18">
-        <v>16</v>
-      </c>
-      <c r="S12" s="21">
-        <v>17</v>
-      </c>
-      <c r="T12" s="23">
-        <v>18</v>
-      </c>
-      <c r="U12" s="23">
-        <v>19</v>
-      </c>
-      <c r="V12" s="24">
+      <c r="U12" s="19">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="D7:V7"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="M8:M11"/>
+  <mergeCells count="28">
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
@@ -1407,16 +1397,13 @@
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="N8:U8"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="V9:V11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="P10:P11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="C7:U7"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="S5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requirements/header.xlsx
+++ b/requirements/header.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\PycharmProjects\work_plan_converter\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E806D8-9811-4604-A8C1-7F5DE990617C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B1ED4-461B-43F4-A6B6-262F9D5F2445}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">header!$A$12:$U$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -203,7 +206,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="8" tint="-0.249977111117893"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -541,8 +544,140 @@
     <xf numFmtId="167" fontId="8" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -562,140 +697,8 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -982,7 +985,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,12 +1011,12 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="24"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="68"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1033,12 +1036,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="26"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1058,12 +1061,12 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="26"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="70"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1084,8 +1087,8 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1107,122 +1110,122 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="22"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="49" t="s">
+      <c r="F8" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="44" t="s">
+      <c r="J8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="61" t="s">
+      <c r="M8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
       <c r="U8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="29"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="6">
         <v>2</v>
       </c>
@@ -1241,75 +1244,75 @@
       <c r="R9" s="10">
         <v>1</v>
       </c>
-      <c r="S9" s="63" t="s">
+      <c r="S9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="63" t="s">
+      <c r="T9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="66" t="s">
+      <c r="U9" s="24" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="69" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="71" t="s">
+      <c r="O10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="P10" s="11">
         <v>0.5</v>
       </c>
-      <c r="Q10" s="71" t="s">
+      <c r="Q10" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="47" t="s">
+      <c r="R10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="67"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="72"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="32"/>
       <c r="P11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="68"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="26"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
@@ -1370,21 +1373,20 @@
       <c r="T12" s="18">
         <v>19</v>
       </c>
-      <c r="U12" s="19">
+      <c r="U12" s="72">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A12:U12" xr:uid="{57D269B5-26BE-4CBD-8B92-2C29D7F26DFA}"/>
   <mergeCells count="28">
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C7:U7"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="S5:T5"/>
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
@@ -1397,13 +1399,15 @@
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="K8:K11"/>
-    <mergeCell ref="C7:U7"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/requirements/header.xlsx
+++ b/requirements/header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\PycharmProjects\work_plan_converter\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10B1ED4-461B-43F4-A6B6-262F9D5F2445}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19912507-6F20-4284-9170-663769CAFC37}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Утверждаю</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Директор АНПОО "Кубанский ИПО"              _______________         О.Л.Шутов</t>
   </si>
   <si>
-    <t>"___" ________________________ 2021 г</t>
-  </si>
-  <si>
     <t>Нагрузка СПО  на 2021-2022 учебный год ОФО</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Экзамены</t>
+  </si>
+  <si>
+    <t>"___" ________________________ 202_ г</t>
   </si>
 </sst>
 </file>
@@ -121,7 +121,7 @@
     <numFmt numFmtId="166" formatCode="[$-419]0.00"/>
     <numFmt numFmtId="167" formatCode="[$-419]0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,6 +211,12 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -502,9 +508,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="8" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -544,140 +547,8 @@
     <xf numFmtId="167" fontId="8" fillId="9" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -697,7 +568,142 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -985,7 +991,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,12 +1017,12 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-      <c r="R1" s="67" t="s">
+      <c r="R1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="68"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
     </row>
     <row r="2" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -1036,12 +1042,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="69" t="s">
+      <c r="R2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -1061,12 +1067,12 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-      <c r="R3" s="69" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="70"/>
+      <c r="R3" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="25"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -1087,8 +1093,8 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="1"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1110,283 +1116,285 @@
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
-      <c r="O6" s="71"/>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="71"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="71"/>
+      <c r="A6" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="2"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="66"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="21"/>
     </row>
     <row r="8" spans="1:21" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="C8" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="D8" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="F8" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="G8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="H8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="I8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="J8" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="K8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="61" t="s">
+      <c r="L8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="M8" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="72" t="s">
         <v>16</v>
-      </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="6">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="5">
         <v>2</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>2</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="6">
         <v>1</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>0.3</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="Q9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="9">
         <v>1</v>
       </c>
-      <c r="S9" s="21" t="s">
+      <c r="S9" s="62" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="21" t="s">
+      <c r="U9" s="65" t="s">
         <v>19</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="27" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="29" t="s">
+      <c r="O10" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="P10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="Q10" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="Q10" s="31" t="s">
+      <c r="R10" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="R10" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="25"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="26"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="67"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>1</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>2</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>4</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>6</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>7</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <v>8</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <v>9</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="14">
         <v>10</v>
       </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14">
+      <c r="K12" s="14"/>
+      <c r="L12" s="13">
         <v>11</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <v>12</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="14">
         <v>13</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
         <v>14</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="12">
         <v>15</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="12">
         <v>16</v>
       </c>
-      <c r="R12" s="16">
+      <c r="R12" s="15">
         <v>17</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="17">
         <v>18</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="17">
         <v>19</v>
       </c>
-      <c r="U12" s="72">
+      <c r="U12" s="18">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A12:U12" xr:uid="{57D269B5-26BE-4CBD-8B92-2C29D7F26DFA}"/>
   <mergeCells count="28">
-    <mergeCell ref="C7:U7"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:U3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="A6:T6"/>
-    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="M8:T8"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
     <mergeCell ref="L8:L11"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
@@ -1399,15 +1407,13 @@
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="J8:J11"/>
     <mergeCell ref="K8:K11"/>
-    <mergeCell ref="M8:T8"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="T9:T11"/>
-    <mergeCell ref="U9:U11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="O10:O11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="C7:U7"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:U3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="A6:T6"/>
+    <mergeCell ref="S5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
